--- a/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646609C3-323A-B643-96DD-376907E894EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CF4E0-DF9C-074B-A973-C471090E24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>DOI</t>
   </si>
@@ -82,20 +82,71 @@
     <t>Concentration (pg/mL)</t>
   </si>
   <si>
-    <t>Total radiant efficiency [p/s[ / [µW/cm2]</t>
-  </si>
-  <si>
     <t>Cumulative cell yield (x1e6)</t>
   </si>
   <si>
     <t>IgG titer</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Total radiant efficiency [p/s] / [µW/cm2]</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Delta Delta Ct</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Radiant efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +160,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,17 +211,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,18 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +568,23 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -510,8 +600,23 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -527,8 +632,23 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -544,8 +664,23 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -561,8 +696,23 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -578,8 +728,23 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -595,8 +760,23 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -610,10 +790,25 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -627,10 +822,25 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -644,10 +854,25 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -661,10 +886,25 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -678,10 +918,25 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -695,7 +950,22 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CF4E0-DF9C-074B-A973-C471090E24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F9913-E14E-CF43-8479-96BF01733720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
     <t>Fluorescence</t>
   </si>
   <si>
-    <t>Radiant efficiency</t>
+    <t>Total radiant efficiency</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:J11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F9913-E14E-CF43-8479-96BF01733720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E570629-5D0E-FA47-9AED-5DD07C4C819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>DOI</t>
   </si>
@@ -140,6 +140,45 @@
   </si>
   <si>
     <t>Total radiant efficiency</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10634_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10602_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10594_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10594_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10594_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10594_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10538_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10538_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10514_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10514_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10487_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10487_log_fig1</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
   </si>
 </sst>
 </file>
@@ -540,431 +579,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>35</v>
       </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
         <v>30</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>31</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E570629-5D0E-FA47-9AED-5DD07C4C819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86645D-81D6-B94E-A51C-E302386E9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,14 +581,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -862,10 +864,10 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -897,10 +899,10 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -932,10 +934,10 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -967,10 +969,10 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
         <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86645D-81D6-B94E-A51C-E302386E9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C18326-9F18-6F47-AA70-F53EF68CCFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>DOI</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Count</t>
-  </si>
-  <si>
-    <t>Delta Delta Ct</t>
   </si>
   <si>
     <t>Constant</t>
@@ -581,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -630,7 +627,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -657,7 +654,7 @@
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
@@ -665,7 +662,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -692,7 +689,7 @@
         <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -700,7 +697,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -735,7 +732,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -770,7 +767,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -805,7 +802,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -840,7 +837,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -864,10 +861,10 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -875,7 +872,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -899,10 +896,10 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -910,7 +907,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -934,10 +931,10 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -945,7 +942,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -969,10 +966,10 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -980,7 +977,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1015,7 +1012,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C18326-9F18-6F47-AA70-F53EF68CCFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01499E5-51ED-C944-9C6B-DFE411EC8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>10.1002:btm2.10634</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Relative quantification (2^-DeltaDelta Ct)</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -176,6 +167,15 @@
   </si>
   <si>
     <t>Fig Index</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -607,27 +607,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -642,27 +642,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -677,27 +677,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -712,27 +712,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -747,27 +747,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -782,27 +782,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -817,27 +817,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -852,27 +852,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -887,27 +887,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -922,27 +922,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -957,27 +957,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -992,27 +992,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1027,22 +1027,22 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
